--- a/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
+++ b/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58f73d820186008/Scuola/ITIS/TPSI/Javascript/wikistudenti/WikiStudenti/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkot\OneDrive\Desktop\APPUNTI-SCUOLA\Informatica\Progetti\5C_DiDonnaKotisRipamontiTacconi_ProggettoWiki\assets\project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{12789150-2203-4DBB-97C1-414C1B3A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD87E15D-8059-4E76-8E64-9F9F6F9C13B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F1E94-96AA-407D-9531-4DDC4A7CB731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1.1  Installazione del server</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>1.3.1 Creare web services</t>
+  </si>
+  <si>
+    <t>ore totali</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
@@ -185,6 +188,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -519,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD26BF0-5F83-4C4F-BC31-E7BAC570900C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +672,7 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <f>SUM(B18:B19)</f>
         <v>3</v>
       </c>
@@ -688,6 +692,19 @@
       <c r="B19">
         <v>1</v>
       </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
+++ b/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkot\OneDrive\Desktop\APPUNTI-SCUOLA\Informatica\Progetti\5C_DiDonnaKotisRipamontiTacconi_ProggettoWiki\assets\project_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkot\OneDrive\Desktop\APPUNTI-SCUOLA\Informatica\Progetti\5C_WikiStudenti_DiDonnaKotisRipamontiTacconi\assets\project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F1E94-96AA-407D-9531-4DDC4A7CB731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BA732-0A99-4BE5-B799-8E9E74431E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Custom" sheetId="1" r:id="rId1"/>
+    <sheet name="MeidaWiki" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>1.1  Installazione del server</t>
   </si>
@@ -99,6 +100,45 @@
   </si>
   <si>
     <t>ore totali</t>
+  </si>
+  <si>
+    <t>1.1.2 Installare web server + PHP + database</t>
+  </si>
+  <si>
+    <t>1.1.3 Installare MediaWiki e configurare estensioni base</t>
+  </si>
+  <si>
+    <t>1.2 Configurazione di MediaWiki</t>
+  </si>
+  <si>
+    <t>1.2.1 Configurare temi e interfaccia utente</t>
+  </si>
+  <si>
+    <t>1.2.2 Abilitare autenticazione e gestione utenti</t>
+  </si>
+  <si>
+    <t>1.2.3 Configurare permessi e ruoli per studenti e docenti</t>
+  </si>
+  <si>
+    <t>1.3 Creazione e gestione dei contenuti</t>
+  </si>
+  <si>
+    <t>1.3.1 Creare template di base per gli articoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2  Creare categorie e struttura di navigazione </t>
+  </si>
+  <si>
+    <t>1.3.3 Inserire contenuti di esempio e testare</t>
+  </si>
+  <si>
+    <t>1.4 Manutenzione e testing</t>
+  </si>
+  <si>
+    <t>1.4.1 Testare performance e sicurezza</t>
+  </si>
+  <si>
+    <t>1.4.2 Formare gli utenti e documentare il sistema</t>
   </si>
 </sst>
 </file>
@@ -170,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
@@ -188,7 +228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -526,7 +565,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,10 +743,178 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F2395-5689-403D-B441-A3B2959F48AF}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <f>SUM(B3,B7,B11,B15,)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <f>SUM(B8:B10)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6">
+        <f>SUM(B12:B14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
+        <f>SUM(B16:B17)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B3:B17)</f>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
+++ b/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkot\OneDrive\Desktop\APPUNTI-SCUOLA\Informatica\Progetti\5C_WikiStudenti_DiDonnaKotisRipamontiTacconi\assets\project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BA732-0A99-4BE5-B799-8E9E74431E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B1837-B466-4BA3-A823-A82D95A047EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>1.1  Installazione del server</t>
   </si>
@@ -48,60 +48,12 @@
     <t>1.1.1 Installare Linux sul server</t>
   </si>
   <si>
-    <t>1.2 Creare frontend</t>
-  </si>
-  <si>
-    <t>1.2.1 Creare pagine web</t>
-  </si>
-  <si>
-    <t>1.3 Creare backend</t>
-  </si>
-  <si>
-    <t>1.1.2 Installare gestore web server</t>
-  </si>
-  <si>
-    <t>1.1.3 Installare SSL/OpenSSL</t>
-  </si>
-  <si>
-    <t>1.1.4 Installare DBMS</t>
-  </si>
-  <si>
-    <t>1.4 Creare database</t>
-  </si>
-  <si>
-    <t>1.4.1 Creare E/R</t>
-  </si>
-  <si>
-    <t>1.4.2 Creare schema logico</t>
-  </si>
-  <si>
-    <t>1.4.3 Creare schema databse</t>
-  </si>
-  <si>
-    <t>1.4.4 Progettazione fisica</t>
-  </si>
-  <si>
-    <t>1.5 Gestione articoli</t>
-  </si>
-  <si>
-    <t>1.5.1 Creare template grafico articolo</t>
-  </si>
-  <si>
-    <t>1.5.2 Inserire articoli attraverso il sito</t>
-  </si>
-  <si>
     <t>Nome attività</t>
   </si>
   <si>
     <t>Ore/uomo</t>
   </si>
   <si>
-    <t>1.3.1 Creare web services</t>
-  </si>
-  <si>
-    <t>ore totali</t>
-  </si>
-  <si>
     <t>1.1.2 Installare web server + PHP + database</t>
   </si>
   <si>
@@ -139,6 +91,105 @@
   </si>
   <si>
     <t>1.4.2 Formare gli utenti e documentare il sistema</t>
+  </si>
+  <si>
+    <t>1.2.1 Creazione CSS</t>
+  </si>
+  <si>
+    <t>1.2.2 Creazione pagine statiche</t>
+  </si>
+  <si>
+    <t>1.2.3 Eventuale utilizzo di JS</t>
+  </si>
+  <si>
+    <t>Approvare/Rifiutare/Ripristinare versioni</t>
+  </si>
+  <si>
+    <t>UML casi d'uso</t>
+  </si>
+  <si>
+    <t>Documentazione</t>
+  </si>
+  <si>
+    <t>WireFrame &amp; StoryBoard</t>
+  </si>
+  <si>
+    <t>Realizzare server wiki per studenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analisi &amp; Doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creare frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creare backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creare web services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Servizio Web PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creare database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integrazione con database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controllo accesso alle pagine</t>
+  </si>
+  <si>
+    <t>Controlli Login/Registrazione</t>
+  </si>
+  <si>
+    <t>Gestione articoli</t>
+  </si>
+  <si>
+    <t>Analisi Richiesta</t>
+  </si>
+  <si>
+    <t>UML Classi e Componenti</t>
+  </si>
+  <si>
+    <t>Setup WebServer</t>
+  </si>
+  <si>
+    <t>Installare Ubuntu</t>
+  </si>
+  <si>
+    <t>Installare Apache</t>
+  </si>
+  <si>
+    <t>Installare OpenSSL</t>
+  </si>
+  <si>
+    <t>Setup server MYSQL</t>
+  </si>
+  <si>
+    <t>Installare MYSQL</t>
+  </si>
+  <si>
+    <t>Analisi dati da salvare</t>
+  </si>
+  <si>
+    <t>Shcema ER</t>
+  </si>
+  <si>
+    <t>Schema Logico</t>
+  </si>
+  <si>
+    <t>Creazione  Database</t>
+  </si>
+  <si>
+    <t>Scrittura articoli</t>
+  </si>
+  <si>
+    <t>Inserire articoli nel sito</t>
+  </si>
+  <si>
+    <t>non definito</t>
   </si>
 </sst>
 </file>
@@ -210,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
@@ -228,6 +279,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -562,55 +617,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD26BF0-5F83-4C4F-BC31-E7BAC570900C}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6">
-        <f>SUM(B3,B8,B10,B12,B17)</f>
-        <v>38</v>
+        <f>SUM(B3,B9,B13,B18,B22,B29,B34)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6">
-        <f>SUM(B4:B7)</f>
-        <v>7</v>
+        <f>SUM(B4,B5,B6,B7,B8)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -618,74 +673,73 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <f>SUM(B9)</f>
-        <v>10</v>
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6">
+        <f>SUM(B10,B11,B12)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <f>SUM(B11)</f>
-        <v>10</v>
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <f>SUM(B13:B16)</f>
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6">
+        <f>SUM(B14:B17)</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -693,56 +747,189 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6">
-        <f>SUM(B18:B19)</f>
-        <v>3</v>
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6">
+        <f>SUM(B19:B21)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <f>SUM(B2:B19)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6">
+        <f>SUM(B23:B28)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6">
+        <f>SUM(B30:B33)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6">
+        <f>SUM(B35:B36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F2395-5689-403D-B441-A3B2959F48AF}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,10 +953,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +987,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -808,7 +995,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -816,7 +1003,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <f>SUM(B8:B10)</f>
@@ -825,7 +1012,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -833,7 +1020,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -841,7 +1028,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -849,7 +1036,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6">
         <f>SUM(B12:B14)</f>
@@ -858,7 +1045,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -866,7 +1053,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -874,7 +1061,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -882,7 +1069,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B16:B17)</f>
@@ -891,7 +1078,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -899,20 +1086,14 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <f>SUM(B3:B17)</f>
-        <v>64</v>
-      </c>
+      <c r="A18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
+++ b/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkot\OneDrive\Desktop\APPUNTI-SCUOLA\Informatica\Progetti\5C_WikiStudenti_DiDonnaKotisRipamontiTacconi\assets\project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B1837-B466-4BA3-A823-A82D95A047EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0901D11C-7E2E-447F-9C73-5FD243A8278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>1.1  Installazione del server</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>non definito</t>
+  </si>
+  <si>
+    <t>Setup server RADIUS</t>
+  </si>
+  <si>
+    <t>Installare RADIUS</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
@@ -282,7 +288,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -617,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD26BF0-5F83-4C4F-BC31-E7BAC570900C}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="124" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,8 +647,8 @@
         <v>25</v>
       </c>
       <c r="B2" s="6">
-        <f>SUM(B3,B9,B13,B18,B22,B29,B34)</f>
-        <v>100</v>
+        <f>SUM(B3,B9,B13,B15,B20,B24,B31,B36)</f>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,206 +735,223 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6">
-        <f>SUM(B14:B17)</f>
-        <v>8</v>
+        <f>SUM(B14)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="A15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6">
+        <f>SUM(B16:B19)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="6">
-        <f>SUM(B19:B21)</f>
-        <v>6</v>
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <f>SUM(B21:B23)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6">
-        <f>SUM(B23:B28)</f>
-        <v>54</v>
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="8">
         <v>20</v>
       </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="8">
-        <v>10</v>
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
+        <f>SUM(B25:B30)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="6">
-        <f>SUM(B30:B33)</f>
-        <v>12</v>
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <f>SUM(B32:B35)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="6">
-        <f>SUM(B35:B36)</f>
-        <v>2</v>
+      <c r="A34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <f>SUM(B37:B38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
+++ b/assets/project_management/wikistudenti_tabella_pianificazione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkot\OneDrive\Desktop\APPUNTI-SCUOLA\Informatica\Progetti\5C_WikiStudenti_DiDonnaKotisRipamontiTacconi\assets\project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0901D11C-7E2E-447F-9C73-5FD243A8278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FA7E60-5487-441C-80FB-79957C7EB290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="1" r:id="rId1"/>
@@ -93,15 +93,6 @@
     <t>1.4.2 Formare gli utenti e documentare il sistema</t>
   </si>
   <si>
-    <t>1.2.1 Creazione CSS</t>
-  </si>
-  <si>
-    <t>1.2.2 Creazione pagine statiche</t>
-  </si>
-  <si>
-    <t>1.2.3 Eventuale utilizzo di JS</t>
-  </si>
-  <si>
     <t>Approvare/Rifiutare/Ripristinare versioni</t>
   </si>
   <si>
@@ -196,6 +187,15 @@
   </si>
   <si>
     <t>Installare RADIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eventuale utilizzo di JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creazione CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creazione pagine statiche</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD26BF0-5F83-4C4F-BC31-E7BAC570900C}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,16 +644,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <f>SUM(B3,B9,B13,B15,B20,B24,B31,B36)</f>
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6">
         <f>SUM(B4,B5,B6,B7,B8)</f>
@@ -662,7 +662,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -694,15 +694,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(B10,B11,B12)</f>
@@ -711,7 +711,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6">
         <f>SUM(B14)</f>
@@ -744,7 +744,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -752,24 +752,24 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B16:B19)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6">
         <f>SUM(B21:B23)</f>
@@ -802,7 +802,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -818,15 +818,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
         <f>SUM(B25:B30)</f>
@@ -835,7 +835,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -883,24 +883,24 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6">
         <f>SUM(B32:B35)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6">
         <f>SUM(B37:B38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
